--- a/Documentation/SCHEDULE.xlsx
+++ b/Documentation/SCHEDULE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\LSC-LMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Group-3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -612,64 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,14 +626,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -987,7 +1002,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,33 +1021,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="G1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="53" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -1044,56 +1059,56 @@
       <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="60" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="66" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="54"/>
       <c r="G3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="K3" s="61" t="s">
+      <c r="H3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="K3" s="62" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="26"/>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="63" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1114,19 +1129,19 @@
         <v>7</v>
       </c>
       <c r="G4" s="45"/>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="30"/>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="62" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="45"/>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="30"/>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="63" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1149,14 +1164,14 @@
       <c r="G5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="26"/>
       <c r="M5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O5" s="26"/>
@@ -1178,12 +1193,12 @@
         <v>7</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="30"/>
       <c r="M6" s="45"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="30"/>
@@ -1205,14 +1220,17 @@
       <c r="G7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="26"/>
+      <c r="J7" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O7" s="26"/>
@@ -1230,12 +1248,15 @@
       </c>
       <c r="E8" s="26"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="30"/>
+      <c r="J8" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="M8" s="47"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="30"/>
@@ -1251,14 +1272,14 @@
       <c r="G9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="26"/>
       <c r="M9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="26"/>
@@ -1274,12 +1295,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="45"/>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="30"/>
       <c r="M10" s="45"/>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="30"/>
@@ -1299,14 +1320,14 @@
       <c r="G11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="26"/>
       <c r="M11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O11" s="26"/>
@@ -1320,12 +1341,12 @@
         <v>5</v>
       </c>
       <c r="G12" s="49"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="30"/>
       <c r="M12" s="49"/>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O12" s="30"/>
@@ -1338,17 +1359,17 @@
       <c r="E13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="26"/>
@@ -1363,69 +1384,69 @@
         <v>6</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="54" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="54" t="s">
+      <c r="M14" s="41"/>
+      <c r="N14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="50" t="s">
+      <c r="M15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G16" s="51"/>
-      <c r="H16" s="54" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="54" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="43" t="s">
+      <c r="N17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G18" s="53"/>
-      <c r="H18" s="54" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="54" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="30"/>
@@ -1434,26 +1455,26 @@
       <c r="G19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="26"/>
       <c r="M19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.2">
       <c r="G20" s="45"/>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="30"/>
       <c r="M20" s="45"/>
-      <c r="N20" s="54" t="s">
+      <c r="N20" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="30"/>
@@ -1462,26 +1483,26 @@
       <c r="G21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="26"/>
       <c r="M21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="43" t="s">
+      <c r="N21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.2">
       <c r="G22" s="45"/>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="30"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="54" t="s">
+      <c r="N22" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O22" s="30"/>
@@ -1490,60 +1511,60 @@
       <c r="G23" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="26"/>
       <c r="M23" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="34" t="s">
         <v>21</v>
       </c>
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.2">
       <c r="G24" s="45"/>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="30"/>
       <c r="M24" s="45"/>
-      <c r="N24" s="54" t="s">
+      <c r="N24" s="35" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="G1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE.xlsx
+++ b/Documentation/SCHEDULE.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -192,9 +192,6 @@
     <t>PJR w2</t>
   </si>
   <si>
-    <t>Event Table (propose) Student</t>
-  </si>
-  <si>
     <t>Jana</t>
   </si>
   <si>
@@ -204,27 +201,12 @@
     <t>Renzo</t>
   </si>
   <si>
-    <t>Event Table (propose) Admin</t>
-  </si>
-  <si>
-    <t>Use Case FD (Propose) Student_Admin</t>
-  </si>
-  <si>
-    <t>Event Table (existing) Admin</t>
-  </si>
-  <si>
-    <t>Event table (Existing - Student)</t>
-  </si>
-  <si>
     <t>Use Case Diagram (Existing)</t>
   </si>
   <si>
     <t>2. Event table (existing - admin)</t>
   </si>
   <si>
-    <t>2. UseCaseFD (propose - stud &amp; ad)</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -289,13 +271,34 @@
   </si>
   <si>
     <t>ON-GOING</t>
+  </si>
+  <si>
+    <t>Use Case Diagram (Propose) Stud &amp; Ad</t>
+  </si>
+  <si>
+    <t>Event Table (propose) Stud</t>
+  </si>
+  <si>
+    <t>Event Table (propose) Ad</t>
+  </si>
+  <si>
+    <t>Use Case FD (Propose) Stud &amp; Ad</t>
+  </si>
+  <si>
+    <t>Event Table (existing) Ad</t>
+  </si>
+  <si>
+    <t>Event table (Existing) Stud</t>
+  </si>
+  <si>
+    <t>2. UseCaseFD (propose - Stud &amp; Ad)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +378,21 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -603,15 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,6 +635,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -638,73 +704,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,95 +1039,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="G1" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="G1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="66" t="s">
-        <v>34</v>
+      <c r="G2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="54"/>
-      <c r="G3" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="K3" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>21</v>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="G3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="K3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O3" s="26"/>
-      <c r="Q3" s="63" t="s">
-        <v>33</v>
+      <c r="Q3" s="38" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1120,29 +1138,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="35" t="s">
-        <v>22</v>
+      <c r="G4" s="46"/>
+      <c r="H4" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="30"/>
-      <c r="K4" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="35" t="s">
-        <v>22</v>
+      <c r="K4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="46"/>
+      <c r="N4" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O4" s="30"/>
-      <c r="Q4" s="63" t="s">
-        <v>33</v>
+      <c r="Q4" s="38" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1153,28 +1171,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>21</v>
+      <c r="G5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>21</v>
+      <c r="M5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O5" s="26"/>
+      <c r="Q5" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -1184,54 +1205,57 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="35" t="s">
-        <v>22</v>
+      <c r="G6" s="46"/>
+      <c r="H6" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="35" t="s">
-        <v>22</v>
+      <c r="M6" s="46"/>
+      <c r="N6" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O6" s="30"/>
+      <c r="Q6" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>21</v>
+      <c r="G7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>21</v>
+      <c r="J7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O7" s="26"/>
     </row>
@@ -1240,68 +1264,68 @@
         <v>45809</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="35" t="s">
-        <v>22</v>
+      <c r="G8" s="53"/>
+      <c r="H8" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="30"/>
-      <c r="J8" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="35" t="s">
-        <v>22</v>
+      <c r="J8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>21</v>
+      <c r="M9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="35" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="35" t="s">
-        <v>22</v>
+      <c r="M10" s="46"/>
+      <c r="N10" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -1310,233 +1334,257 @@
         <v>46174</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>21</v>
+      <c r="G11" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>21</v>
+      <c r="M11" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="35" t="s">
-        <v>22</v>
+      <c r="M12" s="55"/>
+      <c r="N12" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>21</v>
       </c>
+      <c r="H13" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="34" t="s">
+      <c r="M13" s="56" t="s">
         <v>21</v>
       </c>
+      <c r="N13" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="35" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="35" t="s">
+      <c r="H15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="M15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="M15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>21</v>
+      <c r="N15" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G16" s="41"/>
-      <c r="H16" s="35" t="s">
-        <v>22</v>
+      <c r="G16" s="57"/>
+      <c r="H16" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="35" t="s">
-        <v>22</v>
+      <c r="M16" s="57"/>
+      <c r="N16" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>21</v>
+      <c r="G17" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>21</v>
+      <c r="M17" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G18" s="43"/>
-      <c r="H18" s="35" t="s">
-        <v>22</v>
+      <c r="G18" s="59"/>
+      <c r="H18" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="35" t="s">
-        <v>22</v>
+      <c r="M18" s="59"/>
+      <c r="N18" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>21</v>
+      <c r="G19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>21</v>
+      <c r="M19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G20" s="45"/>
-      <c r="H20" s="35" t="s">
-        <v>22</v>
+      <c r="G20" s="46"/>
+      <c r="H20" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="35" t="s">
-        <v>22</v>
+      <c r="M20" s="46"/>
+      <c r="N20" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O20" s="30"/>
     </row>
     <row r="21" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G21" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>21</v>
+      <c r="G21" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>21</v>
+      <c r="M21" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G22" s="45"/>
-      <c r="H22" s="35" t="s">
-        <v>22</v>
+      <c r="G22" s="46"/>
+      <c r="H22" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="35" t="s">
-        <v>22</v>
+      <c r="M22" s="46"/>
+      <c r="N22" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="30"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G23" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>21</v>
+      <c r="G23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>21</v>
+      <c r="M23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G24" s="45"/>
-      <c r="H24" s="35" t="s">
-        <v>22</v>
+      <c r="G24" s="46"/>
+      <c r="H24" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="35" t="s">
-        <v>22</v>
+      <c r="M24" s="46"/>
+      <c r="N24" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="O24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1545,26 +1593,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE.xlsx
+++ b/Documentation/SCHEDULE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Group-3\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>2. UseCaseFD (propose - Stud &amp; Ad)</t>
+  </si>
+  <si>
+    <t>UML DIAGRAM</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -577,6 +580,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -589,7 +603,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -650,6 +664,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,12 +712,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,29 +727,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,21 +739,11 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1017,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1039,49 +1058,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="G1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1091,11 +1110,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1107,9 +1126,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1119,7 +1138,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="49" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1146,7 +1165,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1173,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1179,14 +1198,14 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="49" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="49" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1213,12 +1232,12 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="46"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1260,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1251,7 +1270,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="51" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1271,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1298,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1293,14 +1312,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1318,12 +1337,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="46"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1352,7 @@
       <c r="A11" s="15">
         <v>46174</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="68" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1341,14 +1360,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1358,18 +1377,18 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="69" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="55"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="55"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1377,20 +1396,20 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="69" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="45" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="45" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1400,38 +1419,41 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="69" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="57"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="45" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1439,27 +1461,33 @@
       </c>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G16" s="57"/>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <v>46905</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="57"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="47" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="47" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1468,26 +1496,26 @@
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G18" s="59"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="59"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="49" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1496,26 +1524,26 @@
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G20" s="46"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="46"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="30"/>
     </row>
     <row r="21" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="49" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1524,26 +1552,26 @@
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G22" s="46"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="46"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="30"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1552,39 +1580,32 @@
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G24" s="46"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="46"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="30"/>
     </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="M25" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="M26" s="50"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="29">
+    <mergeCell ref="M25:M26"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1593,6 +1614,26 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE.xlsx
+++ b/Documentation/SCHEDULE.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="SCHEDULE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -294,14 +294,35 @@
     <t>2. UseCaseFD (propose - Stud &amp; Ad)</t>
   </si>
   <si>
-    <t>UML DIAGRAM</t>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Communication Diagram</t>
+  </si>
+  <si>
+    <t>Object Diagram</t>
+  </si>
+  <si>
+    <t>State Diagram</t>
+  </si>
+  <si>
+    <t>Timing Diagram</t>
+  </si>
+  <si>
+    <t>Consultation With Sir Sean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +417,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -603,7 +632,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -673,77 +702,84 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1036,16 +1072,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="8"/>
@@ -1058,33 +1094,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1096,11 +1132,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1110,11 +1146,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1125,9 +1161,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="64"/>
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="60"/>
+      <c r="B3" s="71"/>
       <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>44713</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>45078</v>
       </c>
@@ -1216,7 +1252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>45444</v>
       </c>
@@ -1246,7 +1282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="21" t="s">
         <v>32</v>
@@ -1260,7 +1296,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="61" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1270,15 +1306,18 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="61" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P7" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>45809</v>
       </c>
@@ -1290,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1298,13 +1337,16 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="62"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P8" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -1327,7 +1369,7 @@
       </c>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>35</v>
@@ -1348,11 +1390,11 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>46174</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1360,14 +1402,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="63" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1375,41 +1417,41 @@
       </c>
       <c r="O11" s="26"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="54"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="46" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="65" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="65" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1417,28 +1459,28 @@
       </c>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="46"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -1446,14 +1488,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1461,33 +1503,44 @@
       </c>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
-        <v>46905</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>42550</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="46"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G17" s="47" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1495,19 +1548,31 @@
       </c>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G18" s="48"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="68"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="48"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="49" t="s">
         <v>24</v>
       </c>
@@ -1523,7 +1588,13 @@
       </c>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="50"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
@@ -1535,7 +1606,16 @@
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="30"/>
       <c r="G21" s="49" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1631,22 @@
       </c>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <v>42551</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="50"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
@@ -1563,7 +1658,19 @@
       </c>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="G23" s="49" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1686,19 @@
       </c>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="G24" s="50"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
@@ -1591,20 +1710,149 @@
       </c>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="M25" s="49" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M26" s="50"/>
       <c r="N26" s="28"/>
       <c r="O26" s="30"/>
+      <c r="P26" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="73"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="62"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="50"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="29"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M34" s="50"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="29"/>
+      <c r="O35" s="26"/>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="50"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="50"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="29"/>
+      <c r="O39" s="26"/>
+    </row>
+    <row r="40" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="50"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="36">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
@@ -1621,19 +1869,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
